--- a/scraping-metadata.xlsx
+++ b/scraping-metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Eto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler Eto\Documents\GitHub\project_project\script-template-iN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,9 +122,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>, ()</t>
-  </si>
-  <si>
     <t>[a-z]{2}</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>placement on the page when scraped</t>
+  </si>
+  <si>
+    <t>()</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
